--- a/back/tables/test.xlsx
+++ b/back/tables/test.xlsx
@@ -14,15 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>Артикул</t>
-  </si>
-  <si>
-    <t>Номенкулатура</t>
-  </si>
-  <si>
-    <t>Цена</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>articul</t>
+  </si>
+  <si>
+    <t>003L0144</t>
+  </si>
+  <si>
+    <t>013G7014</t>
+  </si>
+  <si>
+    <t>013G7016</t>
+  </si>
+  <si>
+    <t>013G7714</t>
   </si>
   <si>
     <t>065B8200</t>
@@ -31,52 +46,22 @@
     <t>065B8207</t>
   </si>
   <si>
-    <t>003L0144</t>
-  </si>
-  <si>
-    <t>013G7714</t>
-  </si>
-  <si>
-    <t>013G7014</t>
-  </si>
-  <si>
-    <t>013G7016</t>
+    <t>Danfoss RLV клапан запорный Ду15, прямой</t>
+  </si>
+  <si>
+    <t>Danfoss RTR-N Клапан терморег. 15 Прямой</t>
+  </si>
+  <si>
+    <t>Danfoss RTR-N Клапан терморег. 20 Прямой</t>
+  </si>
+  <si>
+    <t>Danfoss RA-DV клапан терморегулирующий, Ду 15 прямой</t>
   </si>
   <si>
     <t xml:space="preserve">Danfoss BVR-C Кран шаровой DN15  PN 10 бар спускной под шланг </t>
   </si>
   <si>
     <t>Danfoss Латунный шаровой кран BVR Кран шаровый PN40 DN15</t>
-  </si>
-  <si>
-    <t>Danfoss RLV клапан запорный Ду15, прямой</t>
-  </si>
-  <si>
-    <t>Danfoss RA-DV клапан терморегулирующий, Ду 15 прямой</t>
-  </si>
-  <si>
-    <t>Danfoss RTR-N Клапан терморег. 15 Прямой</t>
-  </si>
-  <si>
-    <t>Danfoss RTR-N Клапан терморег. 20 Прямой</t>
-  </si>
-  <si>
-    <t>10.69</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
-    <t>13.52</t>
-  </si>
-  <si>
-    <t>56.02</t>
-  </si>
-  <si>
-    <t>23.32</t>
-  </si>
-  <si>
-    <t>29.23</t>
   </si>
 </sst>
 </file>
@@ -434,13 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,129 +440,213 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>811.1999999999999</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>303.16</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>116.92</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>448.16</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1960.7</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>448.16</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1960.7</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>448.98</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>705.54</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>448.98</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>705.54</v>
+      </c>
+      <c r="D12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C13">
+        <v>191.76</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
+      <c r="C14">
+        <v>239.7</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>191.76</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>239.7</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
